--- a/Stats Publication Leads.xlsx
+++ b/Stats Publication Leads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://justiceuk-my.sharepoint.com/personal/hayden_smith_justice_gov_uk/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{5D22F1CC-6B7E-4D6D-965B-C445E9D76E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1965B93-BFD8-4CE7-9CAA-EB9C0B9808B3}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{5D22F1CC-6B7E-4D6D-965B-C445E9D76E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEF01D18-ED7D-4476-86EF-042AA4E77904}"/>
   <bookViews>
     <workbookView xWindow="-3732" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{D9DAD797-3196-47A8-927E-B65CA5FE599E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="174">
   <si>
     <t>Title</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>Laura Davis</t>
+  </si>
+  <si>
+    <t>Justice data lab statistics</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1486,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1527,7 +1530,9 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2459,15 +2464,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFA604A9C3983C42BD25AD6B677D13E2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0b7b66054bf514abfae6322c23004b28">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d62609a-7e30-44b8-a432-cdf7356e24ea" xmlns:ns3="351d582a-7b6f-46d7-8ce9-09297641bd46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="791102654b535ba2954fb47e85e2201c" ns2:_="" ns3:_="">
     <xsd:import namespace="3d62609a-7e30-44b8-a432-cdf7356e24ea"/>
@@ -2696,6 +2692,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{604A6221-C1B2-41C8-8D4F-4E88F9B37FB1}">
   <ds:schemaRefs>
@@ -2714,14 +2719,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11924491-05F8-4976-B631-407825EBE43A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97A81B0-2DF2-468B-B6AD-3D7D9D3DB556}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2738,4 +2735,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11924491-05F8-4976-B631-407825EBE43A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Stats Publication Leads.xlsx
+++ b/Stats Publication Leads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://justiceuk-my.sharepoint.com/personal/hayden_smith_justice_gov_uk/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{5D22F1CC-6B7E-4D6D-965B-C445E9D76E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEF01D18-ED7D-4476-86EF-042AA4E77904}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="8_{5D22F1CC-6B7E-4D6D-965B-C445E9D76E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{038B373E-6F18-441F-8EF2-101493F9F6E1}"/>
   <bookViews>
     <workbookView xWindow="-3732" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{D9DAD797-3196-47A8-927E-B65CA5FE599E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$37</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="207">
   <si>
     <t>Title</t>
   </si>
@@ -566,6 +566,105 @@
   </si>
   <si>
     <t>Justice data lab statistics</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/justice-data-lab</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/family-court-statistics-quarterly</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/mortgage-and-landlord-possession-statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/tribunals-statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/criminal-court-statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/criminal-justice-statistics-quarterly</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/knife-and-offensive-weapon-sentencing-statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/legal-aid-statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/proven-reoffending-statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/ethnicity-and-the-criminal-justice-system-2024</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/community-performance-annual-update-to-march-2025</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/electronic-monitoring-statistics-annual-publication-march-2024</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/prison-and-probation-trusts-performance-statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/offender-accommodation-outcome-statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/offender-employment-outcome-statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/offender-management-statistics-quarterly</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/prison-education-statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/prison-population-projections</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/safety-in-custody-statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/youth-custody-data</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/coroners-and-burials-statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/diversity-of-the-judiciary-2024-statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/unpaid-work-management-information</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/civil-justice-statistics-quarterly</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/hmpps-annual-staff-equalities-report</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/hmpps-annual-offender-equalities-report</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/multi-agency-public-protection-arrangements-mappa-annual-reports</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/electronic-monitoring-publication</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/youth-justice-statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/death-of-offenders-in-the-community</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/women-and-the-criminal-justice-system</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/restricted-patients-statistics</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1188,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1099,6 +1198,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1479,28 +1579,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B203AE8A-2D03-41DA-8438-17410F689474}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="60.21875" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="42.109375" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="45.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="3" max="3" width="120.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="42.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.109375" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1508,951 +1609,1071 @@
         <v>137</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="1"/>
+      <c r="H23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="1"/>
+      <c r="H28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>169</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G37" xr:uid="{B203AE8A-2D03-41DA-8438-17410F689474}"/>
+  <autoFilter ref="A1:H37" xr:uid="{B203AE8A-2D03-41DA-8438-17410F689474}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d62609a-7e30-44b8-a432-cdf7356e24ea">
@@ -2463,7 +2684,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFA604A9C3983C42BD25AD6B677D13E2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0b7b66054bf514abfae6322c23004b28">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d62609a-7e30-44b8-a432-cdf7356e24ea" xmlns:ns3="351d582a-7b6f-46d7-8ce9-09297641bd46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="791102654b535ba2954fb47e85e2201c" ns2:_="" ns3:_="">
     <xsd:import namespace="3d62609a-7e30-44b8-a432-cdf7356e24ea"/>
@@ -2692,16 +2913,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11924491-05F8-4976-B631-407825EBE43A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{604A6221-C1B2-41C8-8D4F-4E88F9B37FB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2718,7 +2938,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97A81B0-2DF2-468B-B6AD-3D7D9D3DB556}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2735,12 +2955,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11924491-05F8-4976-B631-407825EBE43A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Stats Publication Leads.xlsx
+++ b/Stats Publication Leads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://justiceuk-my.sharepoint.com/personal/hayden_smith_justice_gov_uk/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="8_{5D22F1CC-6B7E-4D6D-965B-C445E9D76E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{038B373E-6F18-441F-8EF2-101493F9F6E1}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="8_{5D22F1CC-6B7E-4D6D-965B-C445E9D76E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EDEA323-14F2-49FC-BCEB-860DCBBC89ED}"/>
   <bookViews>
     <workbookView xWindow="-3732" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{D9DAD797-3196-47A8-927E-B65CA5FE599E}"/>
   </bookViews>
@@ -391,9 +391,6 @@
     <t>Criminal court statistics quarterly</t>
   </si>
   <si>
-    <t>Prove reoffending statistics</t>
-  </si>
-  <si>
     <t>Safety in custody</t>
   </si>
   <si>
@@ -665,6 +662,9 @@
   </si>
   <si>
     <t>https://www.gov.uk/government/collections/restricted-patients-statistics</t>
+  </si>
+  <si>
+    <t>Serious further offences</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1188,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1198,7 +1198,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1582,11 +1581,11 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1606,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1627,7 +1626,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1635,10 +1634,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -1656,7 +1655,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1664,10 +1663,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>202</v>
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -1685,7 +1684,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -1696,7 +1695,7 @@
         <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -1714,7 +1713,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1722,10 +1721,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -1743,7 +1742,7 @@
         <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1751,10 +1750,10 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -1772,7 +1771,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1783,7 +1782,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>28</v>
@@ -1801,7 +1800,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1809,10 +1808,10 @@
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>32</v>
@@ -1824,13 +1823,13 @@
         <v>34</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1838,28 +1837,28 @@
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1867,10 +1866,10 @@
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
@@ -1894,10 +1893,10 @@
         <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>41</v>
@@ -1915,7 +1914,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1923,10 +1922,10 @@
         <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>44</v>
@@ -1938,13 +1937,13 @@
         <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1952,10 +1951,10 @@
         <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>44</v>
@@ -1967,13 +1966,13 @@
         <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1984,7 +1983,7 @@
         <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>44</v>
@@ -2002,7 +2001,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -2013,7 +2012,7 @@
         <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>44</v>
@@ -2031,7 +2030,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2042,25 +2041,25 @@
         <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2068,10 +2067,10 @@
         <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>203</v>
+        <v>120</v>
+      </c>
+      <c r="C17" t="s">
+        <v>202</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>55</v>
@@ -2089,7 +2088,7 @@
         <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -2097,10 +2096,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>60</v>
@@ -2112,13 +2111,13 @@
         <v>34</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -2126,10 +2125,10 @@
         <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>62</v>
@@ -2147,7 +2146,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2155,10 +2154,10 @@
         <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>67</v>
@@ -2176,7 +2175,7 @@
         <v>11</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -2184,10 +2183,10 @@
         <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>71</v>
@@ -2205,7 +2204,7 @@
         <v>11</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -2213,10 +2212,10 @@
         <v>73</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>74</v>
@@ -2240,10 +2239,10 @@
         <v>76</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>77</v>
@@ -2257,7 +2256,7 @@
         <v>11</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -2265,10 +2264,10 @@
         <v>79</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>204</v>
+        <v>125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>203</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>77</v>
@@ -2286,7 +2285,7 @@
         <v>11</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -2294,28 +2293,28 @@
         <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>205</v>
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
+        <v>204</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -2323,28 +2322,28 @@
         <v>82</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -2352,10 +2351,10 @@
         <v>83</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>84</v>
@@ -2373,7 +2372,7 @@
         <v>11</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -2381,10 +2380,10 @@
         <v>86</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>77</v>
@@ -2398,7 +2397,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -2406,10 +2405,10 @@
         <v>87</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>62</v>
@@ -2427,7 +2426,7 @@
         <v>11</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -2435,10 +2434,10 @@
         <v>91</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>7</v>
@@ -2456,7 +2455,7 @@
         <v>11</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -2467,7 +2466,7 @@
         <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>96</v>
@@ -2485,7 +2484,7 @@
         <v>11</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -2493,10 +2492,10 @@
         <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>98</v>
@@ -2514,7 +2513,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -2522,10 +2521,10 @@
         <v>99</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>98</v>
@@ -2543,7 +2542,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -2551,10 +2550,10 @@
         <v>102</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>98</v>
@@ -2572,7 +2571,7 @@
         <v>15</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2580,10 +2579,10 @@
         <v>103</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>104</v>
@@ -2601,7 +2600,7 @@
         <v>11</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -2609,10 +2608,10 @@
         <v>105</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>106</v>
@@ -2630,7 +2629,7 @@
         <v>15</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -2640,8 +2639,8 @@
       <c r="B37" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>206</v>
+      <c r="C37" t="s">
+        <v>205</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>110</v>
@@ -2655,7 +2654,7 @@
         <v>15</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2674,17 +2673,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d62609a-7e30-44b8-a432-cdf7356e24ea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="351d582a-7b6f-46d7-8ce9-09297641bd46" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFA604A9C3983C42BD25AD6B677D13E2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0b7b66054bf514abfae6322c23004b28">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d62609a-7e30-44b8-a432-cdf7356e24ea" xmlns:ns3="351d582a-7b6f-46d7-8ce9-09297641bd46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="791102654b535ba2954fb47e85e2201c" ns2:_="" ns3:_="">
     <xsd:import namespace="3d62609a-7e30-44b8-a432-cdf7356e24ea"/>
@@ -2913,6 +2901,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d62609a-7e30-44b8-a432-cdf7356e24ea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="351d582a-7b6f-46d7-8ce9-09297641bd46" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11924491-05F8-4976-B631-407825EBE43A}">
   <ds:schemaRefs>
@@ -2922,23 +2921,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{604A6221-C1B2-41C8-8D4F-4E88F9B37FB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3d62609a-7e30-44b8-a432-cdf7356e24ea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="351d582a-7b6f-46d7-8ce9-09297641bd46"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97A81B0-2DF2-468B-B6AD-3D7D9D3DB556}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2955,4 +2937,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{604A6221-C1B2-41C8-8D4F-4E88F9B37FB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3d62609a-7e30-44b8-a432-cdf7356e24ea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="351d582a-7b6f-46d7-8ce9-09297641bd46"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Stats Publication Leads.xlsx
+++ b/Stats Publication Leads.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://justiceuk-my.sharepoint.com/personal/hayden_smith_justice_gov_uk/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="8_{5D22F1CC-6B7E-4D6D-965B-C445E9D76E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EDEA323-14F2-49FC-BCEB-860DCBBC89ED}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{5D22F1CC-6B7E-4D6D-965B-C445E9D76E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7181A4E1-80C7-4A6F-85B5-AAB7F7DFA366}"/>
   <bookViews>
-    <workbookView xWindow="-3732" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{D9DAD797-3196-47A8-927E-B65CA5FE599E}"/>
+    <workbookView xWindow="-3840" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{D9DAD797-3196-47A8-927E-B65CA5FE599E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,9 +457,6 @@
     <t>long_title</t>
   </si>
   <si>
-    <t>Civil justice statistics</t>
-  </si>
-  <si>
     <t>Prison Population Projections</t>
   </si>
   <si>
@@ -665,6 +662,9 @@
   </si>
   <si>
     <t>Serious further offences</t>
+  </si>
+  <si>
+    <t>Civil justice statistics quarterly</t>
   </si>
 </sst>
 </file>
@@ -1581,11 +1581,11 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1608,7 +1608,7 @@
         <v>136</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1626,7 +1626,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1634,10 +1634,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -1655,7 +1655,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1666,7 +1666,7 @@
         <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -1684,7 +1684,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -1695,7 +1695,7 @@
         <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -1713,7 +1713,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1724,7 +1724,7 @@
         <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -1742,7 +1742,7 @@
         <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1753,7 +1753,7 @@
         <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -1771,7 +1771,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1782,7 +1782,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>28</v>
@@ -1800,7 +1800,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1811,7 +1811,7 @@
         <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>32</v>
@@ -1823,13 +1823,13 @@
         <v>34</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1840,25 +1840,25 @@
         <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1866,10 +1866,10 @@
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
@@ -1896,7 +1896,7 @@
         <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>41</v>
@@ -1914,7 +1914,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1922,10 +1922,10 @@
         <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>44</v>
@@ -1937,13 +1937,13 @@
         <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1954,7 +1954,7 @@
         <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>44</v>
@@ -1966,13 +1966,13 @@
         <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1983,7 +1983,7 @@
         <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>44</v>
@@ -2001,7 +2001,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -2012,7 +2012,7 @@
         <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>44</v>
@@ -2030,7 +2030,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2041,25 +2041,25 @@
         <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2070,7 +2070,7 @@
         <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>55</v>
@@ -2088,7 +2088,7 @@
         <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -2099,7 +2099,7 @@
         <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>60</v>
@@ -2111,13 +2111,13 @@
         <v>34</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -2128,7 +2128,7 @@
         <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>62</v>
@@ -2146,7 +2146,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2154,10 +2154,10 @@
         <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>67</v>
@@ -2175,7 +2175,7 @@
         <v>11</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -2186,7 +2186,7 @@
         <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>71</v>
@@ -2204,7 +2204,7 @@
         <v>11</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -2212,10 +2212,10 @@
         <v>73</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>74</v>
@@ -2242,7 +2242,7 @@
         <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>77</v>
@@ -2256,7 +2256,7 @@
         <v>11</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -2267,7 +2267,7 @@
         <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>77</v>
@@ -2285,7 +2285,7 @@
         <v>11</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -2296,25 +2296,25 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -2325,25 +2325,25 @@
         <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -2351,10 +2351,10 @@
         <v>83</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>84</v>
@@ -2372,7 +2372,7 @@
         <v>11</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -2380,10 +2380,10 @@
         <v>86</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>77</v>
@@ -2397,7 +2397,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -2408,7 +2408,7 @@
         <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>62</v>
@@ -2426,7 +2426,7 @@
         <v>11</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -2437,7 +2437,7 @@
         <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>7</v>
@@ -2455,7 +2455,7 @@
         <v>11</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -2466,7 +2466,7 @@
         <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>96</v>
@@ -2484,7 +2484,7 @@
         <v>11</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -2495,7 +2495,7 @@
         <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>98</v>
@@ -2513,7 +2513,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -2521,10 +2521,10 @@
         <v>99</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>98</v>
@@ -2542,7 +2542,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -2553,7 +2553,7 @@
         <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>98</v>
@@ -2571,7 +2571,7 @@
         <v>15</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2582,7 +2582,7 @@
         <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>104</v>
@@ -2600,7 +2600,7 @@
         <v>11</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -2611,7 +2611,7 @@
         <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>106</v>
@@ -2629,7 +2629,7 @@
         <v>15</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -2640,7 +2640,7 @@
         <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>110</v>
@@ -2654,7 +2654,7 @@
         <v>15</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2673,6 +2673,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d62609a-7e30-44b8-a432-cdf7356e24ea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="351d582a-7b6f-46d7-8ce9-09297641bd46" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFA604A9C3983C42BD25AD6B677D13E2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0b7b66054bf514abfae6322c23004b28">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d62609a-7e30-44b8-a432-cdf7356e24ea" xmlns:ns3="351d582a-7b6f-46d7-8ce9-09297641bd46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="791102654b535ba2954fb47e85e2201c" ns2:_="" ns3:_="">
     <xsd:import namespace="3d62609a-7e30-44b8-a432-cdf7356e24ea"/>
@@ -2901,17 +2912,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d62609a-7e30-44b8-a432-cdf7356e24ea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="351d582a-7b6f-46d7-8ce9-09297641bd46" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11924491-05F8-4976-B631-407825EBE43A}">
   <ds:schemaRefs>
@@ -2921,6 +2921,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{604A6221-C1B2-41C8-8D4F-4E88F9B37FB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3d62609a-7e30-44b8-a432-cdf7356e24ea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="351d582a-7b6f-46d7-8ce9-09297641bd46"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97A81B0-2DF2-468B-B6AD-3D7D9D3DB556}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2937,21 +2954,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{604A6221-C1B2-41C8-8D4F-4E88F9B37FB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3d62609a-7e30-44b8-a432-cdf7356e24ea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="351d582a-7b6f-46d7-8ce9-09297641bd46"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Stats Publication Leads.xlsx
+++ b/Stats Publication Leads.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://justiceuk-my.sharepoint.com/personal/hayden_smith_justice_gov_uk/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zna25d\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{5D22F1CC-6B7E-4D6D-965B-C445E9D76E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7181A4E1-80C7-4A6F-85B5-AAB7F7DFA366}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A011D78F-2570-4BA1-98C6-795D2E1F8044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3840" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{D9DAD797-3196-47A8-927E-B65CA5FE599E}"/>
+    <workbookView xWindow="-3732" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{D9DAD797-3196-47A8-927E-B65CA5FE599E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,11 +39,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="206">
   <si>
     <t>Title</t>
   </si>
   <si>
+    <t>long_title</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
     <t>Publication Month(s)</t>
   </si>
   <si>
@@ -59,9 +65,18 @@
     <t>Justice Data</t>
   </si>
   <si>
+    <t>Mailbox</t>
+  </si>
+  <si>
     <t>Justice Data Lab </t>
   </si>
   <si>
+    <t>Justice data lab statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/justice-data-lab</t>
+  </si>
+  <si>
     <t>Jan, Apr, Jul, Oct </t>
   </si>
   <si>
@@ -77,9 +92,18 @@
     <t>No</t>
   </si>
   <si>
+    <t>Justice.datalab@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Electronic Monitoring</t>
   </si>
   <si>
+    <t>Electronic Monitoring Statistics Publication</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/electronic-monitoring-publication</t>
+  </si>
+  <si>
     <t>Helen Fairbanks</t>
   </si>
   <si>
@@ -89,7 +113,16 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>ppas_statistics@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Offender Management </t>
+  </si>
+  <si>
+    <t>Offender management statistics quarterly</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/offender-management-statistics-quarterly</t>
   </si>
   <si>
     <t>Daniel Hawksworth (prison population &amp; adjudications)
@@ -106,18 +139,36 @@
 Andrea Solomou (probation)</t>
   </si>
   <si>
+    <t>OMSQ-SiC-publications@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Proven Reoffending </t>
   </si>
   <si>
+    <t>Proven reoffending statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/proven-reoffending-statistics</t>
+  </si>
+  <si>
     <t>Rebecca Manning</t>
   </si>
   <si>
     <t>Liz Whiting</t>
   </si>
   <si>
+    <t>reoffendingstatistics@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Safety in Custody </t>
   </si>
   <si>
+    <t>Safety in custody</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/safety-in-custody-statistics</t>
+  </si>
+  <si>
     <t>Allan Cox</t>
   </si>
   <si>
@@ -130,6 +181,9 @@
     <t>First time entrants (FTE) into the Criminal Justice System and Offender Histories</t>
   </si>
   <si>
+    <t>https://www.gov.uk/government/collections/criminal-justice-statistics-quarterly</t>
+  </si>
+  <si>
     <t xml:space="preserve">May </t>
   </si>
   <si>
@@ -139,9 +193,18 @@
     <t>Michael Williams</t>
   </si>
   <si>
+    <t>MOJPNCteam@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Mortgage and Landlord Possessions </t>
   </si>
   <si>
+    <t>Mortgage and landlord possession statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/mortgage-and-landlord-possession-statistics</t>
+  </si>
+  <si>
     <t>Feb, May, Aug,Nov </t>
   </si>
   <si>
@@ -151,24 +214,51 @@
     <t>Rita Kumi-Ampofo </t>
   </si>
   <si>
+    <t>Laura Davis</t>
+  </si>
+  <si>
+    <t>CAJS@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Criminal Justice </t>
   </si>
   <si>
+    <t>Criminal Justice statistics quarterly</t>
+  </si>
+  <si>
+    <t>Fazeen Khamkar</t>
+  </si>
+  <si>
     <t>David Wall</t>
   </si>
   <si>
+    <t>CJS_Statistics@justice.gov.uk</t>
+  </si>
+  <si>
     <t>HMPPS Workforce </t>
   </si>
   <si>
+    <t>HMPPS workforce quarterly</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/prison-and-probation-trusts-performance-statistics</t>
+  </si>
+  <si>
     <t>Robert Hartley</t>
   </si>
   <si>
-    <t xml:space="preserve"> Andrew Wilson</t>
+    <t>Andrew Wilson</t>
   </si>
   <si>
     <t>Knife and Offensive Weapons Sentencing </t>
   </si>
   <si>
+    <t>Knife and Offensive Weapon Sentencing Statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/knife-and-offensive-weapon-sentencing-statistics</t>
+  </si>
+  <si>
     <t>Feb, May, Aug, Nov </t>
   </si>
   <si>
@@ -178,39 +268,90 @@
     <t>Civil Justice System </t>
   </si>
   <si>
+    <t>Civil justice statistics quarterly</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/civil-justice-statistics-quarterly</t>
+  </si>
+  <si>
     <t>Mar, Jun, Sep, Dec </t>
   </si>
   <si>
     <t>Matteo Chiesa</t>
   </si>
   <si>
+    <t>cajs@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Tribunals </t>
   </si>
   <si>
+    <t>Tribunals statistics quarterly</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/tribunals-statistics</t>
+  </si>
+  <si>
     <t>Maria Ionescu</t>
   </si>
   <si>
     <t>Legal Aid </t>
   </si>
   <si>
+    <t>Legal aid statistics quarterly</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/legal-aid-statistics</t>
+  </si>
+  <si>
     <t>Mark Edwardes </t>
   </si>
   <si>
     <t>Mark Edwardes</t>
   </si>
   <si>
+    <t>statistics@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Family Court </t>
   </si>
   <si>
+    <t>Family court statistics quarterly</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/family-court-statistics-quarterly</t>
+  </si>
+  <si>
     <t>Sarah Steadman</t>
   </si>
   <si>
+    <t>familycourt.statistics@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Criminal Court </t>
   </si>
   <si>
+    <t>Criminal court statistics quarterly</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/criminal-court-statistics</t>
+  </si>
+  <si>
+    <t>Benjamin Rudling</t>
+  </si>
+  <si>
+    <t>criminal_court_sta@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Youth Justice </t>
   </si>
   <si>
+    <t>Youth justice statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/youth-justice-statistics</t>
+  </si>
+  <si>
     <t>Jan </t>
   </si>
   <si>
@@ -223,15 +364,27 @@
     <t>Rhian Manley</t>
   </si>
   <si>
+    <t>statistics@yjb.gov.uk</t>
+  </si>
+  <si>
     <t>Coroners </t>
   </si>
   <si>
+    <t>Coroners statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/coroners-and-burials-statistics</t>
+  </si>
+  <si>
     <t>May </t>
   </si>
   <si>
     <t>HMPPS Annual Digest </t>
   </si>
   <si>
+    <t>HMPPS Annual Digest</t>
+  </si>
+  <si>
     <t>Jul </t>
   </si>
   <si>
@@ -244,9 +397,18 @@
     <t>Danielle House (Arun Mehan for escapes, rMDT, finds and protesting behaviour chapters)</t>
   </si>
   <si>
+    <t>SUEPer_Stats@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Prison Population Projections </t>
   </si>
   <si>
+    <t>Prison Population Projections</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/prison-population-projections</t>
+  </si>
+  <si>
     <t>December</t>
   </si>
   <si>
@@ -256,60 +418,123 @@
     <t>Matt Heeks</t>
   </si>
   <si>
+    <t>PrisonProjection.Statistics@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Judiciary </t>
   </si>
   <si>
+    <t>Diversity of the judiciary</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/diversity-of-the-judiciary-2024-statistics</t>
+  </si>
+  <si>
     <t>July </t>
   </si>
   <si>
     <t>Wincen Lowe</t>
   </si>
   <si>
+    <t>judicial.statistics@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Staff Equalities </t>
   </si>
   <si>
+    <t>HMPPS Staff Equalities Report</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/hmpps-annual-staff-equalities-report</t>
+  </si>
+  <si>
     <t>Nov</t>
   </si>
   <si>
-    <t>Andrew Wilson</t>
-  </si>
-  <si>
     <t>MAPPA </t>
   </si>
   <si>
+    <t>Multi-Agency Public Protection Arrangements (MAPPA) annual report</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/multi-agency-public-protection-arrangements-mappa-annual-reports</t>
+  </si>
+  <si>
     <t>Oct </t>
   </si>
   <si>
     <t xml:space="preserve">Eric Nyame </t>
   </si>
   <si>
+    <t>mappa@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Deaths of Offenders in the Community </t>
   </si>
   <si>
+    <t>Deaths of offenders supervised in the community</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/death-of-offenders-in-the-community</t>
+  </si>
+  <si>
     <t>Andrea Solomou</t>
   </si>
   <si>
+    <t>probation-statistics-enquiries@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Women and the Criminal Justice System  </t>
   </si>
   <si>
+    <t>Women and the Criminal Justice System</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/women-and-the-criminal-justice-system</t>
+  </si>
+  <si>
     <t>Race and the Criminal Justice System </t>
   </si>
   <si>
+    <t>Ethnicity and the Criminal Justice System</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/ethnicity-and-the-criminal-justice-system-2024</t>
+  </si>
+  <si>
     <t>Offender Equalities </t>
   </si>
   <si>
+    <t>HMPPS offender equalities report</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/hmpps-annual-offender-equalities-report</t>
+  </si>
+  <si>
     <t>Nov </t>
   </si>
   <si>
     <t>Danielle House</t>
   </si>
   <si>
+    <t>sueper_stats@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Serious Further Offences </t>
   </si>
   <si>
+    <t>Serious further offences</t>
+  </si>
+  <si>
+    <t>SFO@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Prison Performance Ratings </t>
   </si>
   <si>
+    <t>Prison Performance Ratings</t>
+  </si>
+  <si>
     <t>Aamir Ramzan</t>
   </si>
   <si>
@@ -319,9 +544,18 @@
     <t>Julie Sullivan</t>
   </si>
   <si>
+    <t>CustodialPerformance.Enquiries@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Safety in the children and young people estate  </t>
   </si>
   <si>
+    <t>Safety in the Children and Young People Secure Estate</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/youth-custody-data</t>
+  </si>
+  <si>
     <t xml:space="preserve">Katherine Tatlock / Pete Burgess </t>
   </si>
   <si>
@@ -331,39 +565,81 @@
     <t>Katherine Tatlock</t>
   </si>
   <si>
+    <t>YCSInformationAndPerformance@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Prison Education and Accredited Programme Statistics</t>
   </si>
   <si>
+    <t>https://www.gov.uk/government/collections/prison-education-statistics</t>
+  </si>
+  <si>
     <t>Sep</t>
   </si>
   <si>
     <t>EMS Annual</t>
   </si>
   <si>
+    <t>Electronic Monitoring Statistics Annual Publication</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/electronic-monitoring-statistics-annual-publication-march-2024</t>
+  </si>
+  <si>
     <t>July</t>
   </si>
   <si>
     <t>Offender Accommodation Outcomes</t>
   </si>
   <si>
+    <t>Offender accommodation outcomes</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/offender-accommodation-outcome-statistics</t>
+  </si>
+  <si>
     <t>Tania Lee</t>
   </si>
   <si>
     <t>Ed Stradling</t>
   </si>
   <si>
+    <t>CrossCuttingPerformanceEnquiries@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Offender Employment Outcomes</t>
   </si>
   <si>
+    <t>Offender employment outcomes</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/offender-employment-outcome-statistics</t>
+  </si>
+  <si>
     <t>Unpaid Work Management Information</t>
   </si>
   <si>
+    <t>Unpaid work management information</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/unpaid-work-management-information</t>
+  </si>
+  <si>
     <t>May, Nov</t>
   </si>
   <si>
+    <t>crosscuttingperformanceenquiries@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Community Performance Statistics</t>
   </si>
   <si>
+    <t>Community Performance Annual</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/community-performance-annual-update-to-march-2025</t>
+  </si>
+  <si>
     <t>Jul</t>
   </si>
   <si>
@@ -373,298 +649,19 @@
     <t>Anne Kelleher</t>
   </si>
   <si>
+    <t>communityperformanceenquiries@justice.gov.uk</t>
+  </si>
+  <si>
     <t>Restricted Patients Statistics</t>
   </si>
   <si>
+    <t>https://www.gov.uk/government/collections/restricted-patients-statistics</t>
+  </si>
+  <si>
     <t>Apr</t>
   </si>
   <si>
-    <t>Offender management statistics quarterly</t>
-  </si>
-  <si>
-    <t>Legal aid statistics quarterly</t>
-  </si>
-  <si>
-    <t>Family court statistics quarterly</t>
-  </si>
-  <si>
-    <t>Criminal court statistics quarterly</t>
-  </si>
-  <si>
-    <t>Safety in custody</t>
-  </si>
-  <si>
-    <t>Mortgage and landlord possession statistics</t>
-  </si>
-  <si>
-    <t>Criminal Justice System statistics quarterly</t>
-  </si>
-  <si>
-    <t>Knife and Offensive Weapon Sentencing Statistics</t>
-  </si>
-  <si>
-    <t>Tribunals statistics quarterly</t>
-  </si>
-  <si>
-    <t>Youth justice statistics</t>
-  </si>
-  <si>
-    <t>Coroners statistics</t>
-  </si>
-  <si>
-    <t>HMPPS Annual Digest</t>
-  </si>
-  <si>
-    <t>Diversity of the judiciary</t>
-  </si>
-  <si>
-    <t>Multi-Agency Public Protection Arrangements (MAPPA) annual report</t>
-  </si>
-  <si>
-    <t>Deaths of offenders supervised in the community</t>
-  </si>
-  <si>
-    <t>Ethnicity and the Criminal Justice System</t>
-  </si>
-  <si>
-    <t>Women and the Criminal Justice System</t>
-  </si>
-  <si>
-    <t>Prison Performance Ratings</t>
-  </si>
-  <si>
-    <t>Proven reoffending statistics</t>
-  </si>
-  <si>
-    <t>Safety in the Children and Young People Secure Estate</t>
-  </si>
-  <si>
-    <t>Offender employment outcomes</t>
-  </si>
-  <si>
-    <t>Community Performance Annual</t>
-  </si>
-  <si>
-    <t>Electronic Monitoring Statistics Annual Publication</t>
-  </si>
-  <si>
-    <t>Unpaid work management information</t>
-  </si>
-  <si>
-    <t>Electronic Monitoring Statistics Publication</t>
-  </si>
-  <si>
-    <t>long_title</t>
-  </si>
-  <si>
-    <t>Prison Population Projections</t>
-  </si>
-  <si>
-    <t>Offender accommodation outcomes</t>
-  </si>
-  <si>
-    <t>HMPPS offender equalities report</t>
-  </si>
-  <si>
-    <t>HMPPS Staff Equalities Report</t>
-  </si>
-  <si>
-    <t>HMPPS workforce quarterly</t>
-  </si>
-  <si>
-    <t>Mailbox</t>
-  </si>
-  <si>
-    <t>Justice.datalab@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>ppas_statistics@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>OMSQ-SiC-publications@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>reoffendingstatistics@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>MOJPNCteam@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>CAJS@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>CJS_Statistics@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>cajs@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>familycourt.statistics@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>statistics@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>criminal_court_sta@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>statistics@yjb.gov.uk</t>
-  </si>
-  <si>
-    <t>SUEPer_Stats@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>PrisonProjection.Statistics@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>judicial.statistics@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>mappa@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>probation-statistics-enquiries@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>sueper_stats@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>SFO@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>CustodialPerformance.Enquiries@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>YCSInformationAndPerformance@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>CrossCuttingPerformanceEnquiries@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>crosscuttingperformanceenquiries@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>communityperformanceenquiries@justice.gov.uk</t>
-  </si>
-  <si>
     <t>MHCSMailbox@justice.gov.uk</t>
-  </si>
-  <si>
-    <t>Fazeen Khamkar</t>
-  </si>
-  <si>
-    <t>Benjamin Rudling</t>
-  </si>
-  <si>
-    <t>Laura Davis</t>
-  </si>
-  <si>
-    <t>Justice data lab statistics</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/justice-data-lab</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/family-court-statistics-quarterly</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/mortgage-and-landlord-possession-statistics</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/tribunals-statistics</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/criminal-court-statistics</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/criminal-justice-statistics-quarterly</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/knife-and-offensive-weapon-sentencing-statistics</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/legal-aid-statistics</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/proven-reoffending-statistics</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/statistics/ethnicity-and-the-criminal-justice-system-2024</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/statistics/community-performance-annual-update-to-march-2025</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/statistics/electronic-monitoring-statistics-annual-publication-march-2024</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/prison-and-probation-trusts-performance-statistics</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/offender-accommodation-outcome-statistics</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/offender-employment-outcome-statistics</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/offender-management-statistics-quarterly</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/prison-education-statistics</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/prison-population-projections</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/safety-in-custody-statistics</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/youth-custody-data</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/coroners-and-burials-statistics</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/statistics/diversity-of-the-judiciary-2024-statistics</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/unpaid-work-management-information</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/civil-justice-statistics-quarterly</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/hmpps-annual-staff-equalities-report</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/hmpps-annual-offender-equalities-report</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/multi-agency-public-protection-arrangements-mappa-annual-reports</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/electronic-monitoring-publication</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/youth-justice-statistics</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/death-of-offenders-in-the-community</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/women-and-the-criminal-justice-system</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/collections/restricted-patients-statistics</t>
-  </si>
-  <si>
-    <t>Serious further offences</t>
-  </si>
-  <si>
-    <t>Civil justice statistics quarterly</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +997,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1143,6 +1140,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1188,7 +1213,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1198,6 +1223,10 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1259,6 +1288,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1581,1080 +1614,1076 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="60.21875" customWidth="1"/>
+    <col min="1" max="2" width="60.33203125" customWidth="1"/>
     <col min="3" max="3" width="120.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="42.109375" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="45.109375" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="9" max="9" width="55.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>63</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>83</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>94</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>99</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" t="s">
-        <v>193</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>107</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>62</v>
+        <v>111</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>118</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>131</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" t="s">
-        <v>199</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>135</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" t="s">
-        <v>202</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>77</v>
+        <v>141</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" t="s">
-        <v>203</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>146</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>74</v>
+        <v>149</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>84</v>
+        <v>152</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C28" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>77</v>
+        <v>158</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>62</v>
+        <v>161</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" t="s">
-        <v>192</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
+        <v>167</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" t="s">
-        <v>189</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>96</v>
+        <v>174</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" t="s">
-        <v>184</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>98</v>
+        <v>177</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" t="s">
         <v>187</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>98</v>
+      <c r="B34" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" t="s">
-        <v>195</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>104</v>
+        <v>190</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" t="s">
-        <v>183</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>106</v>
+        <v>195</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2664,26 +2693,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d62609a-7e30-44b8-a432-cdf7356e24ea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="351d582a-7b6f-46d7-8ce9-09297641bd46" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFA604A9C3983C42BD25AD6B677D13E2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0b7b66054bf514abfae6322c23004b28">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d62609a-7e30-44b8-a432-cdf7356e24ea" xmlns:ns3="351d582a-7b6f-46d7-8ce9-09297641bd46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="791102654b535ba2954fb47e85e2201c" ns2:_="" ns3:_="">
     <xsd:import namespace="3d62609a-7e30-44b8-a432-cdf7356e24ea"/>
@@ -2912,32 +2921,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11924491-05F8-4976-B631-407825EBE43A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d62609a-7e30-44b8-a432-cdf7356e24ea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="351d582a-7b6f-46d7-8ce9-09297641bd46" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{604A6221-C1B2-41C8-8D4F-4E88F9B37FB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3d62609a-7e30-44b8-a432-cdf7356e24ea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="351d582a-7b6f-46d7-8ce9-09297641bd46"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97A81B0-2DF2-468B-B6AD-3D7D9D3DB556}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2954,4 +2958,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{604A6221-C1B2-41C8-8D4F-4E88F9B37FB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d62609a-7e30-44b8-a432-cdf7356e24ea"/>
+    <ds:schemaRef ds:uri="351d582a-7b6f-46d7-8ce9-09297641bd46"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11924491-05F8-4976-B631-407825EBE43A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>